--- a/data/JHU.xlsx
+++ b/data/JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\covidQA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34AC57D-7019-4F88-A93B-2FC2A5335568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22308BC1-2488-4F91-901B-265A0BF63BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="876" windowWidth="21000" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="876" windowWidth="21000" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Context</t>
   </si>
@@ -37,6 +37,565 @@
   </si>
   <si>
     <t xml:space="preserve">Coronaviruses are a family of viruses that typically cause mild respiratory infections like the common cold but also more severe (and potentially deadly) infections. They are zoonotic diseases, meaning they are transmitted from animals to people. </t>
+  </si>
+  <si>
+    <t>Why is it called a coronavirus?</t>
+  </si>
+  <si>
+    <t>Coronaviruses are named after the Latin word corona, meaning “crown” or “halo,” because they have “crown-like spikes on their surface,” according to the U.S. Centers for Disease Control and Prevention.</t>
+  </si>
+  <si>
+    <t>What severe diseases are caused by coronaviruses?</t>
+  </si>
+  <si>
+    <t>A coronavirus that originated in China led to the Severe Acute Respiratory Syndrome (SARS) outbreak in 2003. Another coronavirus emerged in 2012 in Saudi Arabia, causing Middle East Respiratory Syndrome (MERS).</t>
+  </si>
+  <si>
+    <t>What’s the difference between coronavirus and COVID-19?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The novel coronavirus responsible for this outbreak is known as SARS-CoV-2. The illness caused by the virus is called COVID-19. 
+More information can be found here: Naming the coronavirus disease (COVID-19) and the virus that causes it—WHO. </t>
+  </si>
+  <si>
+    <t>What symptoms do coronaviruses typically cause? How severe are the symptoms in the current outbreak?</t>
+  </si>
+  <si>
+    <t>Common signs of infection include runny nose, cough, fever, sore throat, and shortness of breath. In more severe cases, infection can cause pneumonia, severe acute respiratory syndrome, kidney failure, and even death.</t>
+  </si>
+  <si>
+    <t>Does the virus affect the sense of taste?</t>
+  </si>
+  <si>
+    <t>It’s been a reported phenomenon that an important minority of people have lost the sense of smell or taste.</t>
+  </si>
+  <si>
+    <t>Why does COVID-19 cause shortness of breath?</t>
+  </si>
+  <si>
+    <t>COVID-19 can cause damage to the lungs that impedes their ability to remove oxygen from the air. A lot of patients develop what’s known as severe acute respiratory distress syndrome. And they really benefit from having additional oxygen, particularly in hospital settings.</t>
+  </si>
+  <si>
+    <t>Is the loss of smell an early coronavirus indicator?</t>
+  </si>
+  <si>
+    <t>A temporary loss of smell is relatively common among people who have coronavirus and could be added to a checklist of symptoms to determine whether someone should consider themselves infected. It is not, however, a universal feature of coronavirus infection.</t>
+  </si>
+  <si>
+    <t>Even for people who are mildly ill or moderately ill, they may have some degree of impact on their lungs that could cause shortness of breath. Is that right?</t>
+  </si>
+  <si>
+    <t>When and how should I seek medical attention?Correct. We’re seeing viral pneumonia in patients who don’t even feel that sick.</t>
+  </si>
+  <si>
+    <t>When and how should I seek medical attention?</t>
+  </si>
+  <si>
+    <t>If you develop any of the following emergency warning signs for COVID-19, get medical attention immediately by calling your doctor's office. Emergency warning signs include (but are not limited to):
+Trouble breathing
+Persistent pain or pressure in the chest
+New confusion or inability to arouse
+Bluish lips or face</t>
+  </si>
+  <si>
+    <t>How are coronaviruses transmitted between people?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronaviruses are typically transmitted from person to person through exhalation of respiratory droplets (from the nose and mouth) and close contact. People can contract COVID-19 if they breathe in droplets from an infected person who coughs or exhales droplets. Those droplets can also land on objects and surfaces, and people can then catch the virus from touching those surfaces and then touching their eyes, nose, or mouth. </t>
+  </si>
+  <si>
+    <t>What is known about young children and whether they are carriers and can transmit the virus?</t>
+  </si>
+  <si>
+    <t>oung children can be infected—this has been established by data from China. The data suggests that in some cases they can get quite ill—particularly infants. In general, children are not falling ill as frequently as older adults are, but the virus absolutely affects children</t>
+  </si>
+  <si>
+    <t>What percentage of the population will become infected with COVID-19?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is difficult to estimate what percentage of the U.S. population will become infected with COVID-19. However, some researchers have made educated guesses. Modeling work is based on many assumptions about infection transmissibility, population characteristics, effectiveness of policy measures, etc.—changing these assumptions changes the estimates. Some estimates put the total U.S. population that would be infected during the pandemic without intervention at between 20-60%. A modeling analysis published from the Imperial College of London predicted that in the absence of control measures and changes in individual behavior, 81% of the U.S. population would become infected. </t>
+  </si>
+  <si>
+    <t>Of those infected, what percentage will require hospitalization? And what percentage will require care in an intensive care unit (ICU)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data from China show that about 20% of patients diagnosed with COVID-19 required hospitalization. Note that this is not quite the same as the percentage of all people infected, as there may be people infected who are never diagnosed. People over 60 and who have other health problems are more likely to be hospitalized. In each state or city, the percentage of people requiring hospitalization will depend on the percentage of the general population that is over 60 and who have other health problems. Without a major flattening of the curve, the number of seriously ill patients requiring intensive care unit services will exceed the health system’s capacity. </t>
+  </si>
+  <si>
+    <t>Are there different “species” of coronavirus like there are for Ebola?</t>
+  </si>
+  <si>
+    <t>Among the thousands of samples of the long strand of RNA that makes up the coronavirus, 11 mutations have become fairly common. But as far as we know, it’s the same virus infecting people all over the world, meaning that only one “strain” of the virus exists.</t>
+  </si>
+  <si>
+    <t>What does this mean for a vaccine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are a number of scientific questions related to the vaccine. In general, manufacturers are trying to develop vaccines to parts of the virus that are conserved and not likely to mutate significantly. </t>
+  </si>
+  <si>
+    <t>When people are asymptomatic, can they spread the virus?</t>
+  </si>
+  <si>
+    <t>Yes. This virus has been very hard to control, which suggests asymptomatic transmission, and there have been a number of studies documenting asymptomatic transmission. That’s one reason why you should stay home if someone in your household may have coronavirus infection.</t>
+  </si>
+  <si>
+    <t>How long is an asymptomatic carrier shedding the virus? Can they have it for life, like the herpes virus?</t>
+  </si>
+  <si>
+    <t>There is no evidence of long-term shedding of virus. Herpes virus is a very different virus.</t>
+  </si>
+  <si>
+    <t>The CDC advises:
+If you do not have a test to determine if you are still contagious, you can leave home after these three things have happened:
+You have had no fever for at least 72 hours (that is three full days of no fever without the use of medicine that reduces fevers), AND
+other symptoms have improved (for example, when your cough or shortness of breath have improved), AND
+at least 7 days have passed since your symptoms first appeared</t>
+  </si>
+  <si>
+    <t>What does “recovered” mean?</t>
+  </si>
+  <si>
+    <t>What is the possibility of reinfection after you have recovered from COVID-19?</t>
+  </si>
+  <si>
+    <t>It is expected that there will be a low possibility of reinfection, but this is not known yet for sure. There are some reported cases of reinfection. Researchers are working to understand how best to measure immunity using tests of the antibody response.
+The virus could mutate and come back like flu does, but in that case, it is unlikely to cause illness as severe as the first infection in someone who has previously been infected.</t>
+  </si>
+  <si>
+    <t>Is there a difference between hospital-acquired COVID and community-acquired COVID?</t>
+  </si>
+  <si>
+    <t>We know from infectious disease in general that the higher the inoculum size—or the higher the number of doses of particles that you get and the higher amount of virus you might be exposed to at one time—corresponds with more serious disease. 
+But in reality, we have no idea what our exposure actually is. In theory, if you are working in a hospital and doing procedures where you generate a lot of virus—like intubation, where a lot of virus can be expressed into the air—it’s possible to get a very high dose and pretty serious illness. 
+Still, we have not seen large distinctions between the severity of disease in health care workers vs. the severity in the community. What we are seeing is age and underlying conditions affecting severity, with the exception that some healthy young people on occasion get serious or even fatal illness.</t>
+  </si>
+  <si>
+    <t>So far, we haven’t seen any particular data that pregnant women are at greater risk. However, there is significant concern that this may be the case.</t>
+  </si>
+  <si>
+    <t>Is there evidence of a heightened risk to pregnant women?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is known about how this virus responds to warm weather and the potential for “seasonality?” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A recent paper by the National Academies of Sciences, Engineering, and Medicine concluded that “changes in weather alone will not necessarily lead to declines in cases without extensive public health interventions,” citing, among other factors, the current rapid spread of the virus in Australia and Iran and the lack of evidence for seasonality in other serious coronaviruses (those causing SARS and MERS). Even if warmer weather weakens the virus, the lack of immunity in the general population will ensure its continued spread. There is no reason at the moment for mayors to expect that warmer weather will slow the virus’ spread. </t>
+  </si>
+  <si>
+    <t>There have been more cases in the northern hemisphere than the southern hemisphere. What does that mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The testing capacity in the northern hemisphere is much higher than in the southern hemisphere, particularly in Sub-Saharan Africa. It’s also possible that the number of travelers between China and the U.S., or China and Europe was greater. This will go away over time as a variable, but it may have made a difference in numbers in the beginning. 
+It doesn’t appear that any country is more immune or that a different environment will protect them from this virus. </t>
+  </si>
+  <si>
+    <t>Are COVID toes related to blood clotting?</t>
+  </si>
+  <si>
+    <t>Yes. People with coronavirus have the ability to form clots more easily, and one place you can get clots is in the small blood vessels that supply your toes. That’s what’s responsible for the purple toes you are seeing—the discoloration is because they are being deprived of blood flow.</t>
+  </si>
+  <si>
+    <t>What makes this upper respiratory infection caused by an RNA virus any different from hundreds of other upper respiratory infections caused by RNA viruses?</t>
+  </si>
+  <si>
+    <t>There are two key differences: First, it’s causing severe disease for individuals which causes big strains on the healthcare system. Second, we just don’t know much about it compared to other RNA viruses that cause upper respiratory infections every day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are some groups at a higher risk for severe COVID-19 illness? </t>
+  </si>
+  <si>
+    <t>Available information suggests that the following are at a higher risk for severe illness from the virus:
+People 65 years and older
+People living in a nursing home or long-term care facility
+People with chronic lung disease or moderate to severe asthma
+People with serious heart conditions
+People who are immunocompromised (including those undergoing cancer treatment, bone marrow or organ transplantation, those with immune deficiencies, poorly controlled HIV or AIDS, smokers, and those with prolonged use of corticosteroids or other immune-weakening medications)
+People with severe obesity (body mass index [BMI] of 40 or higher)
+People with diabetes
+People with chronic kidney disease undergoing dialysis
+People with liver disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there options for supporting seniors who don’t have online access for getting groceries delivered? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for ways to identify at-risk people and get groceries delivered to their homes. If they have to go out, they should be social distancing in the grocery store and practicing hygiene. The handles on shopping carts, for example, are potentially a source of infection even if the store is empty. </t>
+  </si>
+  <si>
+    <t>Should people on immunosuppressive drugs stop taking their medications?</t>
+  </si>
+  <si>
+    <t>They should talk to their doctors. There are different kinds of drugs, and people are on them for different reasons. Some doctors may think the risk benefits suggest they should stop and some will say to continue the medication.</t>
+  </si>
+  <si>
+    <t>Will people who are on these drugs or who have immunosuppressive conditions be stuck at home much longer than others who may be able to come back out when restrictions lift?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It depends on what the underlying condition is. There may eventually be more information about which underlying immunosuppressant conditions put people at higher risk. 
+It also may depend on geography. In some areas of the country, the incidence of disease may be low enough that the risk of going out is also relatively low. 
+For the time being, anyone in this category should consider themselves to be at higher risk and should be very careful about any social interaction outside of their home. </t>
+  </si>
+  <si>
+    <t>How is COVID-19 is impacting people without spleens? (With certain bacterial diseases, people without spleens can get very severe infections.)</t>
+  </si>
+  <si>
+    <t>There is not specific data around this. In general, we think of people who do not have a spleen or whose spleen is not functioning well as being immunosuppressed. I would be more cautious with those individuals and more aggressive in their care. Those individuals would want to have more social distancing than the average person.</t>
+  </si>
+  <si>
+    <t>Are women taking oral contraceptives more at risk from blood clotting from COVID-19?</t>
+  </si>
+  <si>
+    <t>There is an elevated risk of clotting from oral contraceptives. COVID will synergize with whatever other propensity you have to get clots so someone on birth control may be more likely to clot than the average person. This is something we need more guidance around—if women who are on birth control pills get sick, should they consider stopping the medication and using an alternative method of birth control during that period of time?</t>
+  </si>
+  <si>
+    <t>When is testing important?</t>
+  </si>
+  <si>
+    <t>Testing is particularly important for people who are seriously ill. Knowing the diagnosis is important for clinical care, allows health care workers to protect themselves, and is necessary for research into treatments.
+For people who are mildly or moderately ill, testing can help assure that they isolate themselves and alert people they have come in contact with of the potential need for quarantine. By quickly identifying individuals who are sick and isolating them, public health authorities can reduce the spread of the novel coronavirus.
+To assure both that tests are available for those who need them and that the health professionals are prepared to do the test safely, adequate safety equipment is essential. Not every clinic or medical office will conduct the testing. Physicians and public health authorities should direct people to where they can be tested. Given the limited availability of testing, there is much less urgency to test people who are feeling well.
+Also, wherever possible, people should not just show up at emergency departments for testing, in order to reduce the demand on hospitals as well as to protect themselves and others. It is much better to call ahead, determine that testing is appropriate and available, and follow instructions on where and when to go.</t>
+  </si>
+  <si>
+    <t>What does testing tell us about the rate of mortality and spread of the virus?</t>
+  </si>
+  <si>
+    <t>Variations in mortality rates across the world reflect many factors, including the age group most affected, preexisting medical conditions, and the rate of testing. In addition, mortality rates are difficult to determine early in the outbreak because most people are still in the midst of their illness. Mortality estimates that include those people who do not have an outcome yet will undercount the mortality rate. In the absence of widespread testing or understanding of the overall attack rate, mortality rates will appear higher than they actually are in areas with widespread testing because those with milder illness will not receive tests and will not be counted.</t>
+  </si>
+  <si>
+    <t>Why aren’t there enough tests available and will this change?</t>
+  </si>
+  <si>
+    <t>The major limiting factors are insufficient reagents [the substances used in chemical analysis], swabs, and protective equipment. These shortages are being addressed and more tests are becoming available.</t>
+  </si>
+  <si>
+    <t>Why are there reagent shortages that are impacting testing?</t>
+  </si>
+  <si>
+    <t>It is unclear why these shortages are occurring, but there appears to be a lack of critical supplies needed to deploy the current tests. Addressing these potential shortages and preventing other potential issues that may limit access are urgent priorities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the current spike in cases a result of increased testing or because the virus is still spreading? When can we expect to see the curve flatten? </t>
+  </si>
+  <si>
+    <t>We don't know for sure. If you’re increasing testing, you'll find more positives, but that may not be the only factor. Cases are also increasing because the virus is spreading. The most important thing right now is to watch the health care system. If more patients are coming in and they are getting sicker, then you know that the situation is getting worse, regardless of the number of tests. We are seeing such increases in New York. Mayors should keep in touch with their hospitals to understand the status of the pandemic on health care systems.</t>
+  </si>
+  <si>
+    <t>Can the COVID-19 test tell the difference between someone with an active infection and someone who was infected in the past?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current tests for COVID-19 look for the presence of the virus in your body which means there’s an active infection.
+There is another kind of test called serologic testing which looks for evidence that you may have been infected in the past. </t>
+  </si>
+  <si>
+    <t>What is the difference between molecular tests and serology tests? Can serology tests be used in place of molecular tests?</t>
+  </si>
+  <si>
+    <t>Molecular tests look for evidence of an active infection. Serum antibody tests are a different kind of test that measure the body’s response to infection: antibodies, which take time to develop—about five days or more after initial infection. There are different kinds of antibody tests. In general, molecular tests and antibody tests are not replaceable with one another, because they measure different things.</t>
+  </si>
+  <si>
+    <t>If you are tested and the test is negative, do you still have to be quarantined?</t>
+  </si>
+  <si>
+    <t>Yes. The reason is the test measures infection, not exposure. Someone can be exposed on a Monday, not develop an infection yet on a Tuesday and test negative, but then develop a clinical infection on Wednesday and then have a positive test Thursday. So, quarantine needs to last for 14 days regardless of testing results.</t>
+  </si>
+  <si>
+    <t>Are false negatives a problem with COVID tests?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A false negative would mean that you actually have the disease but you get a negative test result. It’s a falsely negative test that should have been positive. 
+In a clinical setting, doctors and nurses have reported negative tests despite seeing compelling cases of COVID on a CT scan or the way someone presents. They proceed as though it is a positive diagnosis. 
+At this point, there’s no centralized database to say that specific tests have a certain number of false negatives or positives. In general, this testing is fairly reliable but there will be false results as no test is perfect. It would be good to have more information about the operating characteristics of all the tests. </t>
+  </si>
+  <si>
+    <t>With limited testing available, how do we tell people to assume they have coronavirus, or have been exposed to it, without panicking them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People who have symptoms should assume they have it, isolate themselves from other people, talk to people they may have exposed in the days prior to experiencing symptoms, and recommend that those contacts self-quarantine. Mayors should reinforce this message. Having a call center or using 311 for coronavirus response could help mayors and public health officials provide these messages. Such a system can also be a way to keep track of the epidemic. If you give people experiencing symptoms the option to go online or call for help with food delivery or other services, you can log them into a database, and, to the extent that the health department is able, do contact tracing, make referrals, and offer support. </t>
+  </si>
+  <si>
+    <t>Should we be testing first responders before they start their work day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many health care settings and other first responders are already actively screening workers for fevers and other symptoms. Over time, testing may become more viable for screening on a routine basis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much information about the movements of individuals who test positive should we share, and how do we avoid causing a panic by people thinking they may have been exposed? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These decisions should be made with local public health officials. With respect to COVID-19 specifically, the U.S. Department of Health and Human Services Office for Civil Rights advises that only the “minimum necessary” information be disclosed to the public. Certain communities in New Jersey, for example, have released only patient age, gender, current location (hospital vs. home), virus contraction date, and whether it was contracted from a known individual. However, depending on the situation, health officials may have reasons to release more information to help people protect themselves. For example, if someone went to a funeral during an infectious period, making an announcement to instruct funeral attendees what to do might well be appropriate. </t>
+  </si>
+  <si>
+    <t>What are the disparities in testing for marginalized communities and how can we address them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ve largely built testing off our health care system, with all the inequities built into it. That's one of the reasons we’re suggesting a call center that’s available to everyone. Even though this virus started in the United States with people returning from cruises or international travel, the populations at greatest risk are low income, minority communities with high rates of chronic illness and insecure housing and food. The initial attention to people who got coronavirus on cruises and international trips has distracted us from the urgency of providing not just testing but also follow-up services—food, housing, and other supports—for vulnerable populations. It’s the right thing to do as a matter of justice, but it’s also absolutely critical for control of the disease. </t>
+  </si>
+  <si>
+    <t>How can I protect myself against coronaviruses?</t>
+  </si>
+  <si>
+    <t>The World Health Organization suggests avoiding close contact with anyone showing symptoms of respiratory illness such as coughing and sneezing; covering your mouth and nose when coughing and sneezing; and regular hand washing to protect yourself against infection and limit the spread of the virus.
+The best way to prevent illness is to avoid exposure to the virus through the following steps:
+Regularly and thoroughly wash your hands with soap and water for at least 20 seconds or clean them with a 60% alcohol-based hand sanitizer.
+Maintain at least 6 feet of distance between yourself and anyone who is coughing or sneezing.
+Avoid touching your eyes, nose, and mouth.
+Cover your mouth and nose with your bent elbow or a tissue when you cough or sneeze, then dispose of the used tissue immediately.
+Clean and disinfect frequently touched surfaces daily, including doorknobs, tables, light switches, countertops, handles, desks, phones, keyboards, toilets, faucets, and sinks.
+Stay home if you feel unwell. If you have a cough, fever, and difficulty breathing, seek medical attention but call in advance.
+Keep up-to-date on the latest COVID-19 hotspots (cities or local areas where the virus is spreading widely) and avoid traveling to those places, especially if you are an older person or have diabetes, heart disease, or lung disease.</t>
+  </si>
+  <si>
+    <t>Is hand sanitizer effective to protect against coronavirus?</t>
+  </si>
+  <si>
+    <t>Good hand hygiene is a way to reduce the possibility of getting infected and plain soap and water is quite effective. But if you’re on the go, hand sanitizer is a good, convenient alternative.</t>
+  </si>
+  <si>
+    <t>How long does the virus stay on your clothes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus may remain detectable for hours to days on surfaces made from a variety of materials, including clothing. It is not known how infectious this virus is, and it is less infectious over time. In addition, the absorbent fibers in some clothing may cause the virus to dry up more quickly than it does on plastics and metals. Washing clothing is thought to be sufficient to inactivate the virus. Wash clothing on the warmest possible setting appropriate for the material and dry completely. </t>
+  </si>
+  <si>
+    <t>Cleaning produce brought home from the grocery store: should you do anything differently or use any particular cleaning products?</t>
+  </si>
+  <si>
+    <t>Here is general guidance on fruits and vegetables: (via CDC). There is not specific guidance for coronavirus. In general, the risk of transmission is low, but will be reduced further with cooking.</t>
+  </si>
+  <si>
+    <t>Is takeout food safe? What precautions should people take?</t>
+  </si>
+  <si>
+    <t>In general, takeout food is low risk—particularly if the food is cooked. You should wash your hands after touching the packages, but the risk of contracting coronavirus from food delivery, takeout, groceries, or mail is low. Mayors should make sure that restaurants understand the importance of preventing people from coming to work sick. The FDA offers guidance for food processing facilities and farms.</t>
+  </si>
+  <si>
+    <t>Is the public water supply safe from the virus?</t>
+  </si>
+  <si>
+    <t>There is no evidence of transmission through the public water supply.</t>
+  </si>
+  <si>
+    <t>If two people are positive, can they quarantine together or do they have to be separated?</t>
+  </si>
+  <si>
+    <t>This is a bit of a trick question: They can be isolated together as long as we’re sure they’re both positive. There’s no problem in having multiple people isolate together. But, ideally, people should quarantine separately.
+It’s also important to distinguish between isolation and quarantine: isolation is for people who are sick. Quarantine separates and restricts the movement of people who may have been exposed to the virus.</t>
+  </si>
+  <si>
+    <t>Is it correct that if someone in your home is ill then you should also be staying at home?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. If people in the home are coughing, have fevers, or other symptoms of the coronavirus, this is good advice. As testing scales up, advice may change. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you avoid the virus by drinking warm water every 15 minutes? </t>
+  </si>
+  <si>
+    <t>There’s no evidence behind that claim. Certainly you want to stay hydrated. But there is no evidence at all to support that internet meme telling people that they should only drink warm water, and that if they drink cold water, their lungs will become fibrotic. Stay hydrated, and don’t worry about drinking cold water.</t>
+  </si>
+  <si>
+    <t>There’s a holding-your-breath test sweeping the internet: is it true that if you can hold your breath, you know that you do or you do not have COVID-19?</t>
+  </si>
+  <si>
+    <t>There’s no way to tell if you have COVID-19 without a laboratory test. There is some evidence that a CT scan could provide some pictures of your lungs that may raise suspicions, but at this point, the only way we can really tell if you have COVID-19 is if you get a laboratory test.
+I can’t say that without following it with a plea: At this point, particularly given that testing is limited, we very much have to prioritize those people who are quite ill, and to let doctors and nurses in hospitals decide who needs to be tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should the general public cover their faces with bandanas or other makeshift masks? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CDC now recommends that people without symptoms wear cloth masks in public to reduce the risk of asymptomatic spread. A reasonable position would be to encourage wearing masks while emphasizing that it's social distancing and not just the mask that prevents spread from person to person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there official guidance on the efficacy of DIY face masks and can these be donated for use in health care settings? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CDC has posted instructions on its website for making and using cloth masks. If used properly and in conjunction with social distancing techniques, cloth masks can help slow the spread of the virus in the general population. Importantly, the CDC does not recommend that individuals wear surgical masks or N-95 respirators, as there is still a critical shortage of these supplies for health care workers and first responders. 
+Efforts to crowdsource effective PPE should precede calls for improvised masks. (This website helps match unused PPE to health care providers.) The CDC permits the use of cloth masks by health care providers only as a last resort, cautioning “[H]omemade masks are not considered PPE (personal protective equipment), since their capability to protect [providers] is unknown. Caution should be exercised when considering this option. Homemade masks should ideally be used in combination with a face shield that covers the entire front (that extends to the chin or below) and sides of the face.” </t>
+  </si>
+  <si>
+    <t>Are there acceptable designs of PPE that local manufacturers and hobbyist 3D printers can create for medical staff?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s very hard to make health care-ready PPE. Local businesses and hobbyists should be advised to manufacture for the public market than try to make health care-quality masks. Other local industries may have stockpiles of certified equipment that could go to health care workers. The community can come together to make masks and other protective equipment for essential workers outside health care. </t>
+  </si>
+  <si>
+    <t>If someone goes for a jog through a neighborhood where there might be a patient with novel coronavirus, are they at risk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. The majority of transmissions of this virus occur through droplet transmission. This means that a sick patient who coughs or sneezes is expelling virus through droplets that don’t travel that far. They tend to fall to surfaces within a six-foot distance. If you touch a surface that is contaminated with droplets from someone who has coughed or sneezed on it and then you touch your eyes or nose or mouth, you could potentially become infected that way. </t>
+  </si>
+  <si>
+    <t>How should I help a friend, neighbor, or family member who is ill?</t>
+  </si>
+  <si>
+    <t>If they are ill from coronavirus, you can drop off food or other supplies for them, call them, and make sure they’re coping well. If they are getting sicker, you can help them notify their doctor or local public health agency to arrange for medical care.</t>
+  </si>
+  <si>
+    <t>Will I get sick if I help care for them?</t>
+  </si>
+  <si>
+    <t>If you’re caring for them directly without adequate protective equipment, the chance of infection is very high. If people need that extra care, they may need to be hospitalized.</t>
+  </si>
+  <si>
+    <t>Are my pets at risk of getting sick?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some animals, like ferrets and maybe cats, are susceptible to this virus. Dogs were shown to be more resistant. The recommendations right now are to keep your distance from pets if you are diagnosed with COVID-19. The good news is we don’t think that pets are very likely to get sick if they are actually exposed to or infected with SARS-CoV-2 virus. But out of an abundance of caution—since we don’t know this virus well just yet—it’s a good idea to play it safe. </t>
+  </si>
+  <si>
+    <t>How much food should people have on hand? Are there concerns about the food supply at this point?</t>
+  </si>
+  <si>
+    <t>There’s no evidence that there’s a shortage of food. I think people have gone to the grocery stores and seen some empty shelves, which probably alarms them. That’s probably more due to people going out at once trying to buy things before the grocery stores have had the ability to restock. That said, I think it makes sense to keep food on hand so that you don’t have to go out to the grocery store frequently. Because right now, what we’re telling people is to try to stay home as much as possible to limit your possibility of being exposed to the virus. So if you can keep some food on hand to enable you to stay home for longer, I think that’s a good idea.</t>
+  </si>
+  <si>
+    <t>Can the virus travel to the lower lungs during deep breathing exercises, such as during yoga?</t>
+  </si>
+  <si>
+    <t>There’s no evidence that yoga breathing facilitates the virus going into the deeper parts of the lungs. Once you’re infected with the virus, it’s going to spread in your airways. The way you breathe or don’t breath won’t play much of a role.</t>
+  </si>
+  <si>
+    <t>Does a person’s blood type affect how infectious or sick that person may become?</t>
+  </si>
+  <si>
+    <t>There is some emerging data on blood types influencing how severely ill you might get. Blood type O seems to be more protective against severe disease, but this is correlation, not causation, so there would need to be more studies to know definitively</t>
+  </si>
+  <si>
+    <t>Can you get COVID-19 from second-hand smoke?</t>
+  </si>
+  <si>
+    <t>If someone is smoking a cigarette and coughing at the same time, maybe, but there’s not a biological mechanism for how the virus would be in the smoke.</t>
+  </si>
+  <si>
+    <t>Does prone body position help very severely ill coronavirus patients in the intensive care unit?</t>
+  </si>
+  <si>
+    <t>There are reports that this can be helpful and there are more proning studies going on. The challenge with proning is that it is staffing intensive. You need a lot of staff to put people in the proning position and keep them that way—and a lot of PPE to do this safely.</t>
+  </si>
+  <si>
+    <t>Wet markets in China are widely believed to be a source of new infections, including coronavirus. Should they be shut down?</t>
+  </si>
+  <si>
+    <t>Wet markets have come up in a number of contexts—certainly with COVID-19, and the 2003 SARS epidemic was linked to a wet market. The challenge with COVID-19 is that we don’t actually know much about the wet market that was involved. We know that the initial cluster of patients seen by clinicians had an occupational connection there. But we don’t fully know if and how they became infected at the wet market. It’s possible that the virus was circulating in the population and somebody who had it spread it at the wet market. We don’t know that it came from the animals there.
+Wet markets have been identified as places of risk for the potential of animal viruses to spillover into human viruses and there’s an active conversation around what to do about that. Some want to shut it down but worry it will just drive the practice underground in a way that authorities are unable to regulate. Others advocate for more regulatory approaches so that when they occur, they occur as cleanly as possible.</t>
+  </si>
+  <si>
+    <t>Can people expect to be immune once they’ve had the virus? Can the virus “reactivate?”</t>
+  </si>
+  <si>
+    <t>This is unanswered so far. In terms of reports [of potential reactivation] that have come out of Korea, the majority of people in public health and medicine who have been working on COVID believe that this reflects a testing phenomenon. So, when people were retested, they still had the presence of viral RNA in their system but didn’t actually have any replicating virus. 
+There have been a few cases where people were considered “recovered” a little too soon and weren’t clear yet. But there has not been compelling evidence of someone getting sick, getting better, and then becoming clinically ill again.</t>
+  </si>
+  <si>
+    <t>Are people who are sicker likely to be more immune than those who didn’t feel any symptoms at all?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s possible, but we don’t know that yet and it’s one of the open questions about immunity: whether a worse infection gives you a better immune response. </t>
+  </si>
+  <si>
+    <t>Is it possible that some people may be exposed and have mild illness but still produce antibodies that could prevent them from getting a more serious infection?</t>
+  </si>
+  <si>
+    <t>Yes, and we hope that will happen. We will learn more about this once serologic surveys begin. We need to see what percentage of the population has been exposed by a certain date and then find out if that antibody test correlates with immunity.</t>
+  </si>
+  <si>
+    <t>Many of these viruses come from bats, but bats are immune to them. Can we learn something from bats that would help us fight the virus in humans?</t>
+  </si>
+  <si>
+    <t>This is an important area of research. There’s a community of wildlife biologists and vets who study bats for that reason and not just for coronaviruses, but for other viruses like Nipah that occur in bats. This research is also important to understand what future diseases we may need to anticipate.</t>
+  </si>
+  <si>
+    <t>What treatments are there for coronaviruses?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, there are no licensed vaccines or therapeutic agents for coronavirus prevention or treatment, though accelerated research into potential treatments is underway and will be tested through clinical trials. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are many studies underway. One example is research on convalescent serum, meaning the antibodies made by people who have already recovered from COVID-19. It’s possible that giving these antibodies to people at high risk for exposure (like household contacts or health care workers) or to people early in infection will be beneficial. </t>
+  </si>
+  <si>
+    <t>What progress is being made on therapies or treatments for COVID-19?</t>
+  </si>
+  <si>
+    <t>Is there evidence for using hydroxychloroquine as a treatment for COVID-19?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is some anecdotal evidence that there may be some benefit to using chloroquine at different stages of infection, and a little bit of lab data suggesting it might have some effects on the virus, but there isn’t good data that it works at a particular point in the infection or even that it works at all. There are ongoing studies, the results of which are coming. We should get some results soon telling us not just whether it works, but also when it works, at what dose, and other actionable information. </t>
+  </si>
+  <si>
+    <t>We have a new flu vaccine every year with a new strain. Why is it so hard to get a coronavirus vaccine?</t>
+  </si>
+  <si>
+    <t>We use the same flu vaccine strategy every year that’s been developed over many decades. We know the dose of antigen—the protein—required to cause immunity and we know basically how to swap in and out the latest strain to use the same system. 
+We don’t know yet what system will be used to create a COVID vaccine or what vaccine candidates will be safe and not cause side effects. We don’t know what will cause the right level of immunity. We are starting from scratch and have a lot to learn.</t>
+  </si>
+  <si>
+    <t>Is interferon Alfa 2B an effective treatment? Should we be encouraging our medical community to obtain this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are over 30 treatments currently being tested around the world. Interferon Alfa 2B has historically been used to treat diseases such as dengue fever, HIV, and hepatitis. However, no treatments have been demonstrated to be safe and effective in high quality studies. This treatment, like others, is considered experimental for COVID-19 at this time. </t>
+  </si>
+  <si>
+    <t>What are randomized control trials?</t>
+  </si>
+  <si>
+    <t>A randomized control trial is a study design where a patient is randomized to either option 1 or option 2, sometimes multiple options, and sometimes one of those options is a placebo. That study design allows us to control for factors that may influence our ability to see the benefits and the risks associated with something like a treatment.
+It’s really important in this setting because we don’t know much about COVID-19. The design is how we identify medical countermeasures, vaccines, medications.</t>
+  </si>
+  <si>
+    <t>Why is the world’s response to COVID-19 so much greater than the response to other outbreaks like H1N1 or SARS?</t>
+  </si>
+  <si>
+    <t>One reason is that this virus is more easily transmitted than SARS (SARS caused an epidemic in 2003.). People with SARS were most likely to transmit the virus when they were quite ill, so a lot of transmission occurred in health care environments. Once we were able to improve infection control in health care environments, we were able to bring the epidemic under control. The 2009 pandemic caused by the new flu strain H1N1 was similar to COVID-19 in the sense that people transmitted their infections quite easily. But it was a milder virus; it didn’t produce the same level of severe illness or death that we so far have seen with this novel coronavirus.
+COVID-19 is not as deadly as SARS was. On average, SARS killed about 10% of the known cases, and the estimates for this virus are much lower. But the fact that it’s so easily transmissible— much more like a flu than SARS—has made response to this pandemic quite difficult.</t>
+  </si>
+  <si>
+    <t>What metrics should cities be looking at to understand the real-time spread and anticipate the timing of the surge?</t>
+  </si>
+  <si>
+    <t>It is very difficult to accurately predict the surge without having sufficient testing capacity for the population. Depending on the scale of testing in the area, cities may be able to look at test results to understand the likely surge in patients coming in the ensuing 2–4 weeks. Cities should also closely monitor the hospital system to assess the number of hospitalized and ICU patients, as well as the doubling time in the growth of the number of these patients. If there is a single call center for people with symptoms, the number of calls should be tracked as one measure to watch. There are other emerging sources of data, such as fevers reported by companies that make internet-enabled thermometers.</t>
+  </si>
+  <si>
+    <t>For businesses that remain open, what are best practices they should be using to stop the spread?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC has released guidelines for infection control in workplaces. These guidelines include the critical guidance that workers with any symptoms of illness should stay home. 
+In addition, businesses that remain open should ensure that customers are maintaining social distancing on their premises. They can do this by limiting the number of people allowed inside at a given time and putting colored tape on floors to help customers keep their distance from one another, as well as cashiers at checkout lines. They can also encourage customers to abide by sanitary guidelines—including hand washing and sanitizing and limited touching of products—and offer disinfecting wipes and hand sanitizer stations.
+Many stores now close early to give workers time to completely sanitize the store or periodically sanitize high-use items. For customers who are 60 or older, some stores have started to offer dedicated shopping hours to limit interaction with other customers. Cities can encourage stores to enact these measures to create a safer shopping environment for customers. </t>
+  </si>
+  <si>
+    <t>What should we do to protect employees at businesses that are still open, like grocery stores, hotels, and restaurants?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CDC has some specific guidance on this. It’s imperative to maintain and enforce social distancing measures. Public spaces should be regularly decontaminated in accordance with the CDC guidelines. Mayors should work to help essential businesses follow the rules. But the most important thing businesses should do is remind workers with any symptoms of illness to stay home. Mayors can help by enacting citywide sick leave policies. </t>
+  </si>
+  <si>
+    <t>Does the science support limiting the number of people in grocery stores at one time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. We should be practicing social distancing of at least six feet apart, all the time, including in grocery stores. </t>
+  </si>
+  <si>
+    <t>How do we get through to the youth who feel they are immune to the disease or not affected by it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Josh Sharfstein: “Young people often believe they’re invincible. Combine that with all the messages that young people are unlikely to get seriously ill from the coronavirus, and you get kids congregating even though they’re being told not to. Changing youth behavior is hard. The best way to reach them is through their peers. Engage directly with young people and try to develop a youth corps to spread the message. Find your youth advisory boards and the youth leaders who can say to their peers, ‘We don't want to be bridges to infection to our parents and grandparents.’ I recently participated in a webinar with well over 100 Baltimore youth, and they asked great questions. I told them, ‘You all have this responsibility to get the word out there because what you do really matters’.” </t>
+  </si>
+  <si>
+    <t>Why aren’t we seeing human temperature monitors in public places like airports, hospitals, grocery stores, warehouses, etc.?</t>
+  </si>
+  <si>
+    <t>Taking temperatures is a very insensitive and imprecise tool. People can have elevated temperatures for all sorts of reasons that don’t correlate with illness, such as exercise. People can also suppress their fevers by taking Tylenol or other over-the-counter medications.
+Having ubiquitous temperature monitors is not likely to be a great benefit and may result in a huge number of false positives and false negatives.</t>
+  </si>
+  <si>
+    <t>Are residents of homeless shelters a vulnerable population?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. Homeless shelters are often overcrowded and understaffed, making it difficult to properly enforce social distancing and appropriate hygiene measures, so individuals living in shelters—and unhoused individuals more broadly—are at high risk for contracting COVID-19. Further, homeless individuals disproportionately suffer from asthma, diabetes, heart disease, and other chronic illnesses, which contribute to the severity of COVID-19 symptoms and effects. While the federal government’s stimulus package includes funding to help shelters and the homeless population, capacity and hygiene issues at shelters will persist. </t>
   </si>
 </sst>
 </file>
@@ -357,20 +916,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -378,14 +937,695 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/JHU.xlsx
+++ b/data/JHU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\covidQA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22308BC1-2488-4F91-901B-265A0BF63BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFFFBD9-A7E6-4CB7-92C9-2D6B73FD4152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="876" windowWidth="21000" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,6 @@
     <t>What’s the difference between coronavirus and COVID-19?</t>
   </si>
   <si>
-    <t xml:space="preserve">The novel coronavirus responsible for this outbreak is known as SARS-CoV-2. The illness caused by the virus is called COVID-19. 
-More information can be found here: Naming the coronavirus disease (COVID-19) and the virus that causes it—WHO. </t>
-  </si>
-  <si>
     <t>What symptoms do coronaviruses typically cause? How severe are the symptoms in the current outbreak?</t>
   </si>
   <si>
@@ -597,18 +593,27 @@
   <si>
     <t xml:space="preserve">Yes. Homeless shelters are often overcrowded and understaffed, making it difficult to properly enforce social distancing and appropriate hygiene measures, so individuals living in shelters—and unhoused individuals more broadly—are at high risk for contracting COVID-19. Further, homeless individuals disproportionately suffer from asthma, diabetes, heart disease, and other chronic illnesses, which contribute to the severity of COVID-19 symptoms and effects. While the federal government’s stimulus package includes funding to help shelters and the homeless population, capacity and hygiene issues at shelters will persist. </t>
   </si>
+  <si>
+    <t>The novel coronavirus responsible for this outbreak is known as SARS-CoV-2. The illness caused by the virus is called COVID-19.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -631,11 +636,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,17 +924,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -944,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -952,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,668 +967,668 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="216" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="288" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="288" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="77" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="216" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/JHU.xlsx
+++ b/data/JHU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\covidQA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFFFBD9-A7E6-4CB7-92C9-2D6B73FD4152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF92CD9-16B4-48D5-96BC-8D3DBC7BE8A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Context</t>
   </si>
@@ -78,22 +78,9 @@
     <t>A temporary loss of smell is relatively common among people who have coronavirus and could be added to a checklist of symptoms to determine whether someone should consider themselves infected. It is not, however, a universal feature of coronavirus infection.</t>
   </si>
   <si>
-    <t>Even for people who are mildly ill or moderately ill, they may have some degree of impact on their lungs that could cause shortness of breath. Is that right?</t>
-  </si>
-  <si>
-    <t>When and how should I seek medical attention?Correct. We’re seeing viral pneumonia in patients who don’t even feel that sick.</t>
-  </si>
-  <si>
     <t>When and how should I seek medical attention?</t>
   </si>
   <si>
-    <t>If you develop any of the following emergency warning signs for COVID-19, get medical attention immediately by calling your doctor's office. Emergency warning signs include (but are not limited to):
-Trouble breathing
-Persistent pain or pressure in the chest
-New confusion or inability to arouse
-Bluish lips or face</t>
-  </si>
-  <si>
     <t>How are coronaviruses transmitted between people?</t>
   </si>
   <si>
@@ -103,21 +90,6 @@
     <t>What is known about young children and whether they are carriers and can transmit the virus?</t>
   </si>
   <si>
-    <t>oung children can be infected—this has been established by data from China. The data suggests that in some cases they can get quite ill—particularly infants. In general, children are not falling ill as frequently as older adults are, but the virus absolutely affects children</t>
-  </si>
-  <si>
-    <t>What percentage of the population will become infected with COVID-19?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is difficult to estimate what percentage of the U.S. population will become infected with COVID-19. However, some researchers have made educated guesses. Modeling work is based on many assumptions about infection transmissibility, population characteristics, effectiveness of policy measures, etc.—changing these assumptions changes the estimates. Some estimates put the total U.S. population that would be infected during the pandemic without intervention at between 20-60%. A modeling analysis published from the Imperial College of London predicted that in the absence of control measures and changes in individual behavior, 81% of the U.S. population would become infected. </t>
-  </si>
-  <si>
-    <t>Of those infected, what percentage will require hospitalization? And what percentage will require care in an intensive care unit (ICU)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data from China show that about 20% of patients diagnosed with COVID-19 required hospitalization. Note that this is not quite the same as the percentage of all people infected, as there may be people infected who are never diagnosed. People over 60 and who have other health problems are more likely to be hospitalized. In each state or city, the percentage of people requiring hospitalization will depend on the percentage of the general population that is over 60 and who have other health problems. Without a major flattening of the curve, the number of seriously ill patients requiring intensive care unit services will exceed the health system’s capacity. </t>
-  </si>
-  <si>
     <t>Are there different “species” of coronavirus like there are for Ebola?</t>
   </si>
   <si>
@@ -142,29 +114,7 @@
     <t>There is no evidence of long-term shedding of virus. Herpes virus is a very different virus.</t>
   </si>
   <si>
-    <t>The CDC advises:
-If you do not have a test to determine if you are still contagious, you can leave home after these three things have happened:
-You have had no fever for at least 72 hours (that is three full days of no fever without the use of medicine that reduces fevers), AND
-other symptoms have improved (for example, when your cough or shortness of breath have improved), AND
-at least 7 days have passed since your symptoms first appeared</t>
-  </si>
-  <si>
-    <t>What does “recovered” mean?</t>
-  </si>
-  <si>
     <t>What is the possibility of reinfection after you have recovered from COVID-19?</t>
-  </si>
-  <si>
-    <t>It is expected that there will be a low possibility of reinfection, but this is not known yet for sure. There are some reported cases of reinfection. Researchers are working to understand how best to measure immunity using tests of the antibody response.
-The virus could mutate and come back like flu does, but in that case, it is unlikely to cause illness as severe as the first infection in someone who has previously been infected.</t>
-  </si>
-  <si>
-    <t>Is there a difference between hospital-acquired COVID and community-acquired COVID?</t>
-  </si>
-  <si>
-    <t>We know from infectious disease in general that the higher the inoculum size—or the higher the number of doses of particles that you get and the higher amount of virus you might be exposed to at one time—corresponds with more serious disease. 
-But in reality, we have no idea what our exposure actually is. In theory, if you are working in a hospital and doing procedures where you generate a lot of virus—like intubation, where a lot of virus can be expressed into the air—it’s possible to get a very high dose and pretty serious illness. 
-Still, we have not seen large distinctions between the severity of disease in health care workers vs. the severity in the community. What we are seeing is age and underlying conditions affecting severity, with the exception that some healthy young people on occasion get serious or even fatal illness.</t>
   </si>
   <si>
     <t>So far, we haven’t seen any particular data that pregnant women are at greater risk. However, there is significant concern that this may be the case.</t>
@@ -198,21 +148,6 @@
     <t>There are two key differences: First, it’s causing severe disease for individuals which causes big strains on the healthcare system. Second, we just don’t know much about it compared to other RNA viruses that cause upper respiratory infections every day.</t>
   </si>
   <si>
-    <t xml:space="preserve">Are some groups at a higher risk for severe COVID-19 illness? </t>
-  </si>
-  <si>
-    <t>Available information suggests that the following are at a higher risk for severe illness from the virus:
-People 65 years and older
-People living in a nursing home or long-term care facility
-People with chronic lung disease or moderate to severe asthma
-People with serious heart conditions
-People who are immunocompromised (including those undergoing cancer treatment, bone marrow or organ transplantation, those with immune deficiencies, poorly controlled HIV or AIDS, smokers, and those with prolonged use of corticosteroids or other immune-weakening medications)
-People with severe obesity (body mass index [BMI] of 40 or higher)
-People with diabetes
-People with chronic kidney disease undergoing dialysis
-People with liver disease</t>
-  </si>
-  <si>
     <t xml:space="preserve">Are there options for supporting seniors who don’t have online access for getting groceries delivered? </t>
   </si>
   <si>
@@ -225,14 +160,6 @@
     <t>They should talk to their doctors. There are different kinds of drugs, and people are on them for different reasons. Some doctors may think the risk benefits suggest they should stop and some will say to continue the medication.</t>
   </si>
   <si>
-    <t>Will people who are on these drugs or who have immunosuppressive conditions be stuck at home much longer than others who may be able to come back out when restrictions lift?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It depends on what the underlying condition is. There may eventually be more information about which underlying immunosuppressant conditions put people at higher risk. 
-It also may depend on geography. In some areas of the country, the incidence of disease may be low enough that the risk of going out is also relatively low. 
-For the time being, anyone in this category should consider themselves to be at higher risk and should be very careful about any social interaction outside of their home. </t>
-  </si>
-  <si>
     <t>How is COVID-19 is impacting people without spleens? (With certain bacterial diseases, people without spleens can get very severe infections.)</t>
   </si>
   <si>
@@ -245,21 +172,9 @@
     <t>There is an elevated risk of clotting from oral contraceptives. COVID will synergize with whatever other propensity you have to get clots so someone on birth control may be more likely to clot than the average person. This is something we need more guidance around—if women who are on birth control pills get sick, should they consider stopping the medication and using an alternative method of birth control during that period of time?</t>
   </si>
   <si>
-    <t>When is testing important?</t>
-  </si>
-  <si>
-    <t>Testing is particularly important for people who are seriously ill. Knowing the diagnosis is important for clinical care, allows health care workers to protect themselves, and is necessary for research into treatments.
-For people who are mildly or moderately ill, testing can help assure that they isolate themselves and alert people they have come in contact with of the potential need for quarantine. By quickly identifying individuals who are sick and isolating them, public health authorities can reduce the spread of the novel coronavirus.
-To assure both that tests are available for those who need them and that the health professionals are prepared to do the test safely, adequate safety equipment is essential. Not every clinic or medical office will conduct the testing. Physicians and public health authorities should direct people to where they can be tested. Given the limited availability of testing, there is much less urgency to test people who are feeling well.
-Also, wherever possible, people should not just show up at emergency departments for testing, in order to reduce the demand on hospitals as well as to protect themselves and others. It is much better to call ahead, determine that testing is appropriate and available, and follow instructions on where and when to go.</t>
-  </si>
-  <si>
     <t>What does testing tell us about the rate of mortality and spread of the virus?</t>
   </si>
   <si>
-    <t>Variations in mortality rates across the world reflect many factors, including the age group most affected, preexisting medical conditions, and the rate of testing. In addition, mortality rates are difficult to determine early in the outbreak because most people are still in the midst of their illness. Mortality estimates that include those people who do not have an outcome yet will undercount the mortality rate. In the absence of widespread testing or understanding of the overall attack rate, mortality rates will appear higher than they actually are in areas with widespread testing because those with milder illness will not receive tests and will not be counted.</t>
-  </si>
-  <si>
     <t>Why aren’t there enough tests available and will this change?</t>
   </si>
   <si>
@@ -275,16 +190,9 @@
     <t xml:space="preserve">Is the current spike in cases a result of increased testing or because the virus is still spreading? When can we expect to see the curve flatten? </t>
   </si>
   <si>
-    <t>We don't know for sure. If you’re increasing testing, you'll find more positives, but that may not be the only factor. Cases are also increasing because the virus is spreading. The most important thing right now is to watch the health care system. If more patients are coming in and they are getting sicker, then you know that the situation is getting worse, regardless of the number of tests. We are seeing such increases in New York. Mayors should keep in touch with their hospitals to understand the status of the pandemic on health care systems.</t>
-  </si>
-  <si>
     <t>Can the COVID-19 test tell the difference between someone with an active infection and someone who was infected in the past?</t>
   </si>
   <si>
-    <t xml:space="preserve">Current tests for COVID-19 look for the presence of the virus in your body which means there’s an active infection.
-There is another kind of test called serologic testing which looks for evidence that you may have been infected in the past. </t>
-  </si>
-  <si>
     <t>What is the difference between molecular tests and serology tests? Can serology tests be used in place of molecular tests?</t>
   </si>
   <si>
@@ -300,49 +208,18 @@
     <t>Are false negatives a problem with COVID tests?</t>
   </si>
   <si>
-    <t xml:space="preserve">A false negative would mean that you actually have the disease but you get a negative test result. It’s a falsely negative test that should have been positive. 
-In a clinical setting, doctors and nurses have reported negative tests despite seeing compelling cases of COVID on a CT scan or the way someone presents. They proceed as though it is a positive diagnosis. 
-At this point, there’s no centralized database to say that specific tests have a certain number of false negatives or positives. In general, this testing is fairly reliable but there will be false results as no test is perfect. It would be good to have more information about the operating characteristics of all the tests. </t>
-  </si>
-  <si>
     <t>With limited testing available, how do we tell people to assume they have coronavirus, or have been exposed to it, without panicking them?</t>
   </si>
   <si>
-    <t xml:space="preserve">People who have symptoms should assume they have it, isolate themselves from other people, talk to people they may have exposed in the days prior to experiencing symptoms, and recommend that those contacts self-quarantine. Mayors should reinforce this message. Having a call center or using 311 for coronavirus response could help mayors and public health officials provide these messages. Such a system can also be a way to keep track of the epidemic. If you give people experiencing symptoms the option to go online or call for help with food delivery or other services, you can log them into a database, and, to the extent that the health department is able, do contact tracing, make referrals, and offer support. </t>
-  </si>
-  <si>
     <t>Should we be testing first responders before they start their work day?</t>
   </si>
   <si>
     <t xml:space="preserve">Many health care settings and other first responders are already actively screening workers for fevers and other symptoms. Over time, testing may become more viable for screening on a routine basis. </t>
   </si>
   <si>
-    <t xml:space="preserve">How much information about the movements of individuals who test positive should we share, and how do we avoid causing a panic by people thinking they may have been exposed? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">These decisions should be made with local public health officials. With respect to COVID-19 specifically, the U.S. Department of Health and Human Services Office for Civil Rights advises that only the “minimum necessary” information be disclosed to the public. Certain communities in New Jersey, for example, have released only patient age, gender, current location (hospital vs. home), virus contraction date, and whether it was contracted from a known individual. However, depending on the situation, health officials may have reasons to release more information to help people protect themselves. For example, if someone went to a funeral during an infectious period, making an announcement to instruct funeral attendees what to do might well be appropriate. </t>
-  </si>
-  <si>
-    <t>What are the disparities in testing for marginalized communities and how can we address them?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’ve largely built testing off our health care system, with all the inequities built into it. That's one of the reasons we’re suggesting a call center that’s available to everyone. Even though this virus started in the United States with people returning from cruises or international travel, the populations at greatest risk are low income, minority communities with high rates of chronic illness and insecure housing and food. The initial attention to people who got coronavirus on cruises and international trips has distracted us from the urgency of providing not just testing but also follow-up services—food, housing, and other supports—for vulnerable populations. It’s the right thing to do as a matter of justice, but it’s also absolutely critical for control of the disease. </t>
-  </si>
-  <si>
     <t>How can I protect myself against coronaviruses?</t>
   </si>
   <si>
-    <t>The World Health Organization suggests avoiding close contact with anyone showing symptoms of respiratory illness such as coughing and sneezing; covering your mouth and nose when coughing and sneezing; and regular hand washing to protect yourself against infection and limit the spread of the virus.
-The best way to prevent illness is to avoid exposure to the virus through the following steps:
-Regularly and thoroughly wash your hands with soap and water for at least 20 seconds or clean them with a 60% alcohol-based hand sanitizer.
-Maintain at least 6 feet of distance between yourself and anyone who is coughing or sneezing.
-Avoid touching your eyes, nose, and mouth.
-Cover your mouth and nose with your bent elbow or a tissue when you cough or sneeze, then dispose of the used tissue immediately.
-Clean and disinfect frequently touched surfaces daily, including doorknobs, tables, light switches, countertops, handles, desks, phones, keyboards, toilets, faucets, and sinks.
-Stay home if you feel unwell. If you have a cough, fever, and difficulty breathing, seek medical attention but call in advance.
-Keep up-to-date on the latest COVID-19 hotspots (cities or local areas where the virus is spreading widely) and avoid traveling to those places, especially if you are an older person or have diabetes, heart disease, or lung disease.</t>
-  </si>
-  <si>
     <t>Is hand sanitizer effective to protect against coronavirus?</t>
   </si>
   <si>
@@ -355,18 +232,6 @@
     <t xml:space="preserve">The coronavirus may remain detectable for hours to days on surfaces made from a variety of materials, including clothing. It is not known how infectious this virus is, and it is less infectious over time. In addition, the absorbent fibers in some clothing may cause the virus to dry up more quickly than it does on plastics and metals. Washing clothing is thought to be sufficient to inactivate the virus. Wash clothing on the warmest possible setting appropriate for the material and dry completely. </t>
   </si>
   <si>
-    <t>Cleaning produce brought home from the grocery store: should you do anything differently or use any particular cleaning products?</t>
-  </si>
-  <si>
-    <t>Here is general guidance on fruits and vegetables: (via CDC). There is not specific guidance for coronavirus. In general, the risk of transmission is low, but will be reduced further with cooking.</t>
-  </si>
-  <si>
-    <t>Is takeout food safe? What precautions should people take?</t>
-  </si>
-  <si>
-    <t>In general, takeout food is low risk—particularly if the food is cooked. You should wash your hands after touching the packages, but the risk of contracting coronavirus from food delivery, takeout, groceries, or mail is low. Mayors should make sure that restaurants understand the importance of preventing people from coming to work sick. The FDA offers guidance for food processing facilities and farms.</t>
-  </si>
-  <si>
     <t>Is the public water supply safe from the virus?</t>
   </si>
   <si>
@@ -376,10 +241,6 @@
     <t>If two people are positive, can they quarantine together or do they have to be separated?</t>
   </si>
   <si>
-    <t>This is a bit of a trick question: They can be isolated together as long as we’re sure they’re both positive. There’s no problem in having multiple people isolate together. But, ideally, people should quarantine separately.
-It’s also important to distinguish between isolation and quarantine: isolation is for people who are sick. Quarantine separates and restricts the movement of people who may have been exposed to the virus.</t>
-  </si>
-  <si>
     <t>Is it correct that if someone in your home is ill then you should also be staying at home?</t>
   </si>
   <si>
@@ -395,23 +256,12 @@
     <t>There’s a holding-your-breath test sweeping the internet: is it true that if you can hold your breath, you know that you do or you do not have COVID-19?</t>
   </si>
   <si>
-    <t>There’s no way to tell if you have COVID-19 without a laboratory test. There is some evidence that a CT scan could provide some pictures of your lungs that may raise suspicions, but at this point, the only way we can really tell if you have COVID-19 is if you get a laboratory test.
-I can’t say that without following it with a plea: At this point, particularly given that testing is limited, we very much have to prioritize those people who are quite ill, and to let doctors and nurses in hospitals decide who needs to be tested.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Should the general public cover their faces with bandanas or other makeshift masks? </t>
   </si>
   <si>
     <t xml:space="preserve">The CDC now recommends that people without symptoms wear cloth masks in public to reduce the risk of asymptomatic spread. A reasonable position would be to encourage wearing masks while emphasizing that it's social distancing and not just the mask that prevents spread from person to person. </t>
   </si>
   <si>
-    <t xml:space="preserve">Is there official guidance on the efficacy of DIY face masks and can these be donated for use in health care settings? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CDC has posted instructions on its website for making and using cloth masks. If used properly and in conjunction with social distancing techniques, cloth masks can help slow the spread of the virus in the general population. Importantly, the CDC does not recommend that individuals wear surgical masks or N-95 respirators, as there is still a critical shortage of these supplies for health care workers and first responders. 
-Efforts to crowdsource effective PPE should precede calls for improvised masks. (This website helps match unused PPE to health care providers.) The CDC permits the use of cloth masks by health care providers only as a last resort, cautioning “[H]omemade masks are not considered PPE (personal protective equipment), since their capability to protect [providers] is unknown. Caution should be exercised when considering this option. Homemade masks should ideally be used in combination with a face shield that covers the entire front (that extends to the chin or below) and sides of the face.” </t>
-  </si>
-  <si>
     <t>Are there acceptable designs of PPE that local manufacturers and hobbyist 3D printers can create for medical staff?</t>
   </si>
   <si>
@@ -421,9 +271,6 @@
     <t>If someone goes for a jog through a neighborhood where there might be a patient with novel coronavirus, are they at risk?</t>
   </si>
   <si>
-    <t xml:space="preserve">No. The majority of transmissions of this virus occur through droplet transmission. This means that a sick patient who coughs or sneezes is expelling virus through droplets that don’t travel that far. They tend to fall to surfaces within a six-foot distance. If you touch a surface that is contaminated with droplets from someone who has coughed or sneezed on it and then you touch your eyes or nose or mouth, you could potentially become infected that way. </t>
-  </si>
-  <si>
     <t>How should I help a friend, neighbor, or family member who is ill?</t>
   </si>
   <si>
@@ -442,12 +289,6 @@
     <t xml:space="preserve">Some animals, like ferrets and maybe cats, are susceptible to this virus. Dogs were shown to be more resistant. The recommendations right now are to keep your distance from pets if you are diagnosed with COVID-19. The good news is we don’t think that pets are very likely to get sick if they are actually exposed to or infected with SARS-CoV-2 virus. But out of an abundance of caution—since we don’t know this virus well just yet—it’s a good idea to play it safe. </t>
   </si>
   <si>
-    <t>How much food should people have on hand? Are there concerns about the food supply at this point?</t>
-  </si>
-  <si>
-    <t>There’s no evidence that there’s a shortage of food. I think people have gone to the grocery stores and seen some empty shelves, which probably alarms them. That’s probably more due to people going out at once trying to buy things before the grocery stores have had the ability to restock. That said, I think it makes sense to keep food on hand so that you don’t have to go out to the grocery store frequently. Because right now, what we’re telling people is to try to stay home as much as possible to limit your possibility of being exposed to the virus. So if you can keep some food on hand to enable you to stay home for longer, I think that’s a good idea.</t>
-  </si>
-  <si>
     <t>Can the virus travel to the lower lungs during deep breathing exercises, such as during yoga?</t>
   </si>
   <si>
@@ -472,20 +313,9 @@
     <t>There are reports that this can be helpful and there are more proning studies going on. The challenge with proning is that it is staffing intensive. You need a lot of staff to put people in the proning position and keep them that way—and a lot of PPE to do this safely.</t>
   </si>
   <si>
-    <t>Wet markets in China are widely believed to be a source of new infections, including coronavirus. Should they be shut down?</t>
-  </si>
-  <si>
-    <t>Wet markets have come up in a number of contexts—certainly with COVID-19, and the 2003 SARS epidemic was linked to a wet market. The challenge with COVID-19 is that we don’t actually know much about the wet market that was involved. We know that the initial cluster of patients seen by clinicians had an occupational connection there. But we don’t fully know if and how they became infected at the wet market. It’s possible that the virus was circulating in the population and somebody who had it spread it at the wet market. We don’t know that it came from the animals there.
-Wet markets have been identified as places of risk for the potential of animal viruses to spillover into human viruses and there’s an active conversation around what to do about that. Some want to shut it down but worry it will just drive the practice underground in a way that authorities are unable to regulate. Others advocate for more regulatory approaches so that when they occur, they occur as cleanly as possible.</t>
-  </si>
-  <si>
     <t>Can people expect to be immune once they’ve had the virus? Can the virus “reactivate?”</t>
   </si>
   <si>
-    <t>This is unanswered so far. In terms of reports [of potential reactivation] that have come out of Korea, the majority of people in public health and medicine who have been working on COVID believe that this reflects a testing phenomenon. So, when people were retested, they still had the presence of viral RNA in their system but didn’t actually have any replicating virus. 
-There have been a few cases where people were considered “recovered” a little too soon and weren’t clear yet. But there has not been compelling evidence of someone getting sick, getting better, and then becoming clinically ill again.</t>
-  </si>
-  <si>
     <t>Are people who are sicker likely to be more immune than those who didn’t feel any symptoms at all?</t>
   </si>
   <si>
@@ -516,19 +346,9 @@
     <t>What progress is being made on therapies or treatments for COVID-19?</t>
   </si>
   <si>
-    <t>Is there evidence for using hydroxychloroquine as a treatment for COVID-19?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is some anecdotal evidence that there may be some benefit to using chloroquine at different stages of infection, and a little bit of lab data suggesting it might have some effects on the virus, but there isn’t good data that it works at a particular point in the infection or even that it works at all. There are ongoing studies, the results of which are coming. We should get some results soon telling us not just whether it works, but also when it works, at what dose, and other actionable information. </t>
-  </si>
-  <si>
     <t>We have a new flu vaccine every year with a new strain. Why is it so hard to get a coronavirus vaccine?</t>
   </si>
   <si>
-    <t>We use the same flu vaccine strategy every year that’s been developed over many decades. We know the dose of antigen—the protein—required to cause immunity and we know basically how to swap in and out the latest strain to use the same system. 
-We don’t know yet what system will be used to create a COVID vaccine or what vaccine candidates will be safe and not cause side effects. We don’t know what will cause the right level of immunity. We are starting from scratch and have a lot to learn.</t>
-  </si>
-  <si>
     <t>Is interferon Alfa 2B an effective treatment? Should we be encouraging our medical community to obtain this?</t>
   </si>
   <si>
@@ -538,63 +358,90 @@
     <t>What are randomized control trials?</t>
   </si>
   <si>
-    <t>A randomized control trial is a study design where a patient is randomized to either option 1 or option 2, sometimes multiple options, and sometimes one of those options is a placebo. That study design allows us to control for factors that may influence our ability to see the benefits and the risks associated with something like a treatment.
-It’s really important in this setting because we don’t know much about COVID-19. The design is how we identify medical countermeasures, vaccines, medications.</t>
-  </si>
-  <si>
     <t>Why is the world’s response to COVID-19 so much greater than the response to other outbreaks like H1N1 or SARS?</t>
   </si>
   <si>
-    <t>One reason is that this virus is more easily transmitted than SARS (SARS caused an epidemic in 2003.). People with SARS were most likely to transmit the virus when they were quite ill, so a lot of transmission occurred in health care environments. Once we were able to improve infection control in health care environments, we were able to bring the epidemic under control. The 2009 pandemic caused by the new flu strain H1N1 was similar to COVID-19 in the sense that people transmitted their infections quite easily. But it was a milder virus; it didn’t produce the same level of severe illness or death that we so far have seen with this novel coronavirus.
-COVID-19 is not as deadly as SARS was. On average, SARS killed about 10% of the known cases, and the estimates for this virus are much lower. But the fact that it’s so easily transmissible— much more like a flu than SARS—has made response to this pandemic quite difficult.</t>
-  </si>
-  <si>
-    <t>What metrics should cities be looking at to understand the real-time spread and anticipate the timing of the surge?</t>
-  </si>
-  <si>
-    <t>It is very difficult to accurately predict the surge without having sufficient testing capacity for the population. Depending on the scale of testing in the area, cities may be able to look at test results to understand the likely surge in patients coming in the ensuing 2–4 weeks. Cities should also closely monitor the hospital system to assess the number of hospitalized and ICU patients, as well as the doubling time in the growth of the number of these patients. If there is a single call center for people with symptoms, the number of calls should be tracked as one measure to watch. There are other emerging sources of data, such as fevers reported by companies that make internet-enabled thermometers.</t>
-  </si>
-  <si>
     <t>For businesses that remain open, what are best practices they should be using to stop the spread?</t>
   </si>
   <si>
-    <t xml:space="preserve">CDC has released guidelines for infection control in workplaces. These guidelines include the critical guidance that workers with any symptoms of illness should stay home. 
-In addition, businesses that remain open should ensure that customers are maintaining social distancing on their premises. They can do this by limiting the number of people allowed inside at a given time and putting colored tape on floors to help customers keep their distance from one another, as well as cashiers at checkout lines. They can also encourage customers to abide by sanitary guidelines—including hand washing and sanitizing and limited touching of products—and offer disinfecting wipes and hand sanitizer stations.
-Many stores now close early to give workers time to completely sanitize the store or periodically sanitize high-use items. For customers who are 60 or older, some stores have started to offer dedicated shopping hours to limit interaction with other customers. Cities can encourage stores to enact these measures to create a safer shopping environment for customers. </t>
-  </si>
-  <si>
     <t>What should we do to protect employees at businesses that are still open, like grocery stores, hotels, and restaurants?</t>
   </si>
   <si>
-    <t xml:space="preserve">The CDC has some specific guidance on this. It’s imperative to maintain and enforce social distancing measures. Public spaces should be regularly decontaminated in accordance with the CDC guidelines. Mayors should work to help essential businesses follow the rules. But the most important thing businesses should do is remind workers with any symptoms of illness to stay home. Mayors can help by enacting citywide sick leave policies. </t>
-  </si>
-  <si>
     <t>Does the science support limiting the number of people in grocery stores at one time?</t>
   </si>
   <si>
     <t xml:space="preserve">Yes. We should be practicing social distancing of at least six feet apart, all the time, including in grocery stores. </t>
   </si>
   <si>
-    <t>How do we get through to the youth who feel they are immune to the disease or not affected by it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Josh Sharfstein: “Young people often believe they’re invincible. Combine that with all the messages that young people are unlikely to get seriously ill from the coronavirus, and you get kids congregating even though they’re being told not to. Changing youth behavior is hard. The best way to reach them is through their peers. Engage directly with young people and try to develop a youth corps to spread the message. Find your youth advisory boards and the youth leaders who can say to their peers, ‘We don't want to be bridges to infection to our parents and grandparents.’ I recently participated in a webinar with well over 100 Baltimore youth, and they asked great questions. I told them, ‘You all have this responsibility to get the word out there because what you do really matters’.” </t>
-  </si>
-  <si>
     <t>Why aren’t we seeing human temperature monitors in public places like airports, hospitals, grocery stores, warehouses, etc.?</t>
   </si>
   <si>
-    <t>Taking temperatures is a very insensitive and imprecise tool. People can have elevated temperatures for all sorts of reasons that don’t correlate with illness, such as exercise. People can also suppress their fevers by taking Tylenol or other over-the-counter medications.
-Having ubiquitous temperature monitors is not likely to be a great benefit and may result in a huge number of false positives and false negatives.</t>
-  </si>
-  <si>
     <t>Are residents of homeless shelters a vulnerable population?</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes. Homeless shelters are often overcrowded and understaffed, making it difficult to properly enforce social distancing and appropriate hygiene measures, so individuals living in shelters—and unhoused individuals more broadly—are at high risk for contracting COVID-19. Further, homeless individuals disproportionately suffer from asthma, diabetes, heart disease, and other chronic illnesses, which contribute to the severity of COVID-19 symptoms and effects. While the federal government’s stimulus package includes funding to help shelters and the homeless population, capacity and hygiene issues at shelters will persist. </t>
-  </si>
-  <si>
     <t>The novel coronavirus responsible for this outbreak is known as SARS-CoV-2. The illness caused by the virus is called COVID-19.</t>
+  </si>
+  <si>
+    <t>If you develop any of the following emergency warning signs for COVID-19, get medical attention immediately by calling your doctor's office. Emergency warning signs include (but are not limited to): Trouble breathing, Persistent pain or pressure in the chest, New confusion or inability to arouse, Bluish lips or face</t>
+  </si>
+  <si>
+    <t>Young children can be infected—this has been established by data from China. The data suggests that in some cases they can get quite ill—particularly infants. In general, children are not falling ill as frequently as older adults are, but the virus absolutely affects children</t>
+  </si>
+  <si>
+    <t>It is expected that there will be a low possibility of reinfection, but this is not known yet for sure. There are some reported cases of reinfection. Researchers are working to understand how best to measure immunity using tests of the antibody response. The virus could mutate and come back like flu does, but in that case, it is unlikely to cause illness as severe as the first infection in someone who has previously been infected.</t>
+  </si>
+  <si>
+    <t>Variations in mortality rates across the world reflect many factors, including the age group most affected, preexisting medical conditions, and the rate of testing. In addition, mortality rates are difficult to determine early in the outbreak because most people are still in the midst of their illness</t>
+  </si>
+  <si>
+    <t>We don't know for sure. If you’re increasing testing, you'll find more positives, but that may not be the only factor. Cases are also increasing because the virus is spreading. The most important thing right now is to watch the health care system. If more patients are coming in and they are getting sicker, then you know that the situation is getting worse, regardless of the number of tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current tests for COVID-19 look for the presence of the virus in your body which means there’s an active infection. There is another kind of test called serologic testing which looks for evidence that you may have been infected in the past. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A false negative would mean that you actually have the disease but you get a negative test result. It’s a falsely negative test that should have been positive. In a clinical setting, doctors and nurses have reported negative tests despite seeing compelling cases of COVID on a CT scan or the way someone presents. They proceed as though it is a positive diagnosis. </t>
+  </si>
+  <si>
+    <t>People who have symptoms should assume they have it, isolate themselves from other people, talk to people they may have exposed in the days prior to experiencing symptoms, and recommend that those contacts self-quarantine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The World Health Organization suggests avoiding close contact with anyone showing symptoms of respiratory illness such as coughing and sneezing; covering your mouth and nose when coughing and sneezing; and regular hand washing to protect yourself against infection and limit the spread of the virus.
+</t>
+  </si>
+  <si>
+    <t>This is a bit of a trick question: They can be isolated together as long as we’re sure they’re both positive. There’s no problem in having multiple people isolate together. But, ideally, people should quarantine separately. It’s also important to distinguish between isolation and quarantine: isolation is for people who are sick. Quarantine separates and restricts the movement of people who may have been exposed to the virus.</t>
+  </si>
+  <si>
+    <t>There’s no way to tell if you have COVID-19 without a laboratory test. There is some evidence that a CT scan could provide some pictures of your lungs that may raise suspicions, but at this point, the only way we can really tell if you have COVID-19 is if you get a laboratory test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majority of transmissions of this virus occur through droplet transmission. This means that a sick patient who coughs or sneezes is expelling virus through droplets that don’t travel that far. They tend to fall to surfaces within a six-foot distance. If you touch a surface that is contaminated with droplets from someone who has coughed or sneezed on it and then you touch your eyes or nose or mouth, you could potentially become infected that way. </t>
+  </si>
+  <si>
+    <t>This is unanswered so far. In terms of reports [of potential reactivation] that have come out of Korea, the majority of people in public health and medicine who have been working on COVID believe that this reflects a testing phenomenon. So, when people were retested, they still had the presence of viral RNA in their system but didn’t actually have any replicating virus. There have been a few cases where people were considered “recovered” a little too soon and weren’t clear yet. But there has not been compelling evidence of someone getting sick, getting better, and then becoming clinically ill again.</t>
+  </si>
+  <si>
+    <t>We use the same flu vaccine strategy every year that’s been developed over many decades. We know the dose of antigen—the protein—required to cause immunity and we know basically how to swap in and out the latest strain to use the same system. We don’t know yet what system will be used to create a COVID vaccine or what vaccine candidates will be safe and not cause side effects. We don’t know what will cause the right level of immunity. We are starting from scratch and have a lot to learn.</t>
+  </si>
+  <si>
+    <t>A randomized control trial is a study design where a patient is randomized to either option 1 or option 2, sometimes multiple options, and sometimes one of those options is a placebo. That study design allows us to control for factors that may influence our ability to see the benefits and the risks associated with something like a treatment. It’s really important in this setting because we don’t know much about COVID-19. The design is how we identify medical countermeasures, vaccines, medications.</t>
+  </si>
+  <si>
+    <t>COVID-19 is not as deadly as SARS was. On average, SARS killed about 10% of the known cases, and the estimates for this virus are much lower. But the fact that it’s so easily transmissible— much more like a flu than SARS—has made response to this pandemic quite difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC has released guidelines for infection control in workplaces. These guidelines include the critical guidance that workers with any symptoms of illness should stay home. In addition, businesses that remain open should ensure that customers are maintaining social distancing on their premises. They can do this by limiting the number of people allowed inside at a given time and putting colored tape on floors to help customers keep their distance from one another, as well as cashiers at checkout lines. They can also encourage customers to abide by sanitary guidelines—including hand washing and sanitizing and limited touching of products—and offer disinfecting wipes and hand sanitizer stations.
+</t>
+  </si>
+  <si>
+    <t>The CDC has some specific guidance on this. It’s imperative to maintain and enforce social distancing measures. Public spaces should be regularly decontaminated in accordance with the CDC guidelines. Authorities should work to help essential businesses follow the rules. But the most important thing businesses should do is remind workers with any symptoms of illness to stay home</t>
+  </si>
+  <si>
+    <t>Taking temperatures is a very insensitive and imprecise tool. People can have elevated temperatures for all sorts of reasons that don’t correlate with illness, such as exercise. People can also suppress their fevers by taking Tylenol or other over-the-counter medications. Having ubiquitous temperature monitors is not likely to be a great benefit and may result in a huge number of false positives and false negatives.</t>
+  </si>
+  <si>
+    <t>Homeless shelters are often overcrowded and understaffed, making it difficult to properly enforce social distancing and appropriate hygiene measures, so individuals living in shelters—and unhoused individuals more broadly—are at high risk for contracting COVID-19</t>
   </si>
 </sst>
 </file>
@@ -922,16 +769,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91.77734375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -972,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1007,628 +854,484 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
